--- a/example notebooks/Example publication - integrated modelling/data/ODYM_database/3_PR_material_price_unit_v1.xlsx
+++ b/example notebooks/Example publication - integrated modelling/data/ODYM_database/3_PR_material_price_unit_v1.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072E83CC-6A7F-4C98-9221-6F95DB48654A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{072E83CC-6A7F-4C98-9221-6F95DB48654A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{566F52B5-0446-4DF7-8F84-5A018B89B2E5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="values" sheetId="7" r:id="rId1"/>
+    <sheet name="Cover" sheetId="8" r:id="rId1"/>
+    <sheet name="Values_Master" sheetId="7" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="_rho_Al">[1]Lists!$H$21</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="113">
   <si>
     <t>Source</t>
   </si>
@@ -186,19 +187,204 @@
   </si>
   <si>
     <t>battery jacket Al</t>
+  </si>
+  <si>
+    <t>ODYM Parameter File</t>
+  </si>
+  <si>
+    <t># Fields highlighted in grey are mandatory. Fields highlighted in blue are linked to other tables and databases. Order of fields and field naming is fixed, do not change!</t>
+  </si>
+  <si>
+    <t>Format_Version</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t># Specify the version number of the formatting used for this file</t>
+  </si>
+  <si>
+    <t>Dataset_Name</t>
+  </si>
+  <si>
+    <t>3_PR_material_price_unit</t>
+  </si>
+  <si>
+    <t># Name of dataset, short and descriptive</t>
+  </si>
+  <si>
+    <t>Dataset_Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battery material price per unit </t>
+  </si>
+  <si>
+    <t># Description of dataset</t>
+  </si>
+  <si>
+    <t>Dataset_Unit</t>
+  </si>
+  <si>
+    <t>US dollar</t>
+  </si>
+  <si>
+    <t># Unit of dataset, cf. UNITS sheet in classification master file, GLOBAL, LIST, or TABLE</t>
+  </si>
+  <si>
+    <t>Dataset_Uncertainty</t>
+  </si>
+  <si>
+    <t>GLOBAL</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t># Uncertainty in form of stats_array string (http://stats-arrays.readthedocs.io/en/latest/), GLOBAL, LIST, or TABLE</t>
+  </si>
+  <si>
+    <t>Dataset_Comment</t>
+  </si>
+  <si>
+    <t># Comment, GLOBAL, LIST, or TABLE</t>
+  </si>
+  <si>
+    <t>Dataset_System_Location</t>
+  </si>
+  <si>
+    <t># Points to processes and flows in a general system definition, optional</t>
+  </si>
+  <si>
+    <t>Dataset_ID</t>
+  </si>
+  <si>
+    <t># ID of dataset, optional, establish link to IEDI</t>
+  </si>
+  <si>
+    <t>Dataset_UUID</t>
+  </si>
+  <si>
+    <t># UUID of dataset, can be generated manually, for archiving and reference purposes</t>
+  </si>
+  <si>
+    <t>Date created</t>
+  </si>
+  <si>
+    <t># Date when dataset was first obtained/created/released</t>
+  </si>
+  <si>
+    <t>Last modified</t>
+  </si>
+  <si>
+    <t># Date of last modification</t>
+  </si>
+  <si>
+    <t>Last modified by</t>
+  </si>
+  <si>
+    <t>Joris Baars</t>
+  </si>
+  <si>
+    <t># Name of researcher responsible for last modification</t>
+  </si>
+  <si>
+    <t>Dataset_Version</t>
+  </si>
+  <si>
+    <t># Version number of dataset</t>
+  </si>
+  <si>
+    <t>Dataset_Classification_version_number</t>
+  </si>
+  <si>
+    <t>model_classification</t>
+  </si>
+  <si>
+    <t># Version number of classifications used for this dataset</t>
+  </si>
+  <si>
+    <t>[Empty on purpose]</t>
+  </si>
+  <si>
+    <t>Dataset_RecordType</t>
+  </si>
+  <si>
+    <t>LIST</t>
+  </si>
+  <si>
+    <t>No_Rows</t>
+  </si>
+  <si>
+    <t># Two types are supported: list and table</t>
+  </si>
+  <si>
+    <t>Aspects_classifications</t>
+  </si>
+  <si>
+    <t>Aspects_Meaning</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>DATA_Info</t>
+  </si>
+  <si>
+    <t>Goods</t>
+  </si>
+  <si>
+    <t>Externally sourced battery materials</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>material price per unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Aspects: Specify aspects in order of appearance in data table. </t>
+  </si>
+  <si>
+    <t>Battery_design_param</t>
+  </si>
+  <si>
+    <t>Technical battery design parameters used to calculate unit costs</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t># Aspects_Meaning: Describe meaning of each aspect</t>
+  </si>
+  <si>
+    <t>stats_array_string</t>
+  </si>
+  <si>
+    <t># DATA: Specify the different quantification layers given: Value, Error, etc, or different scenarios. Must be identical to column names in sheet "Values_Master"</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t># DATA_Info: Describe each data layer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;;&quot; -&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,13 +466,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -371,14 +590,29 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -800,10 +1034,574 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E59B4A-6D46-49EB-BC0F-C0C2B6A3FE0C}">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="12">
+        <v>44255</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="12">
+        <v>44684</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="15">
+        <f>COUNTA(Values_Master!A:A)</f>
+        <v>24</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDDE9FA-34B5-487F-BD06-B5E05371CD58}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/example notebooks/Example publication - integrated modelling/data/ODYM_database/3_PR_material_price_unit_v1.xlsx
+++ b/example notebooks/Example publication - integrated modelling/data/ODYM_database/3_PR_material_price_unit_v1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{072E83CC-6A7F-4C98-9221-6F95DB48654A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{566F52B5-0446-4DF7-8F84-5A018B89B2E5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3932E53A-2098-4A4B-98D1-CE448E6815D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -1038,13 +1038,14 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
